--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>first</t>
   </si>
@@ -138,7 +138,10 @@
     <t xml:space="preserve">Downhill bike ride </t>
   </si>
   <si>
-    <t xml:space="preserve">Guadales and altea tour </t>
+    <t>Guadales and altea tour. Morning 5h. Lunch included.</t>
+  </si>
+  <si>
+    <t>Guadales and altea tour. Afternoon 4h. Stop for a drink included.</t>
   </si>
   <si>
     <t xml:space="preserve">Minibus transfer for 10 people - Transfer Hotel Melia Villaitana -  Alicante airport - pick up 09,15h </t>
@@ -200,7 +203,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="13"/>
@@ -498,7 +501,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -511,7 +514,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -520,16 +523,16 @@
     <xf numFmtId="59" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -541,7 +544,7 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="59" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -550,19 +553,19 @@
     <xf numFmtId="20" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -574,7 +577,7 @@
     <xf numFmtId="20" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="59" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -583,7 +586,7 @@
     <xf numFmtId="20" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -592,22 +595,22 @@
     <xf numFmtId="59" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="20" fontId="7" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="59" fontId="8" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -616,13 +619,13 @@
     <xf numFmtId="20" fontId="8" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -637,9 +640,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -652,11 +652,8 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -664,31 +661,31 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -763,14 +760,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office Theme">
@@ -951,9 +948,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1522,9 +1519,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1788,8 +1785,11 @@
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.1719" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.1719" style="1" customWidth="1"/>
-    <col min="6" max="8" width="15.1719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1719" style="1" customWidth="1"/>
     <col min="9" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11593,7 +11593,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="overThenDown"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -12415,7 +12415,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -12428,7 +12428,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="8.85156" style="29" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="29" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="29" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="29" customWidth="1"/>
     <col min="5" max="5" width="16.1719" style="29" customWidth="1"/>
     <col min="6" max="6" width="12.6719" style="29" customWidth="1"/>
@@ -13357,14 +13359,14 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -13372,10 +13374,35 @@
   <cols>
     <col min="1" max="1" width="10" style="42" customWidth="1"/>
     <col min="2" max="2" width="161.172" style="42" customWidth="1"/>
-    <col min="3" max="4" width="8.85156" style="42" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="42" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="42" customWidth="1"/>
     <col min="5" max="5" width="9.67188" style="42" customWidth="1"/>
     <col min="6" max="6" width="18.6719" style="42" customWidth="1"/>
-    <col min="7" max="31" width="8.85156" style="42" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="42" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="42" customWidth="1"/>
+    <col min="9" max="9" width="8.85156" style="42" customWidth="1"/>
+    <col min="10" max="10" width="8.85156" style="42" customWidth="1"/>
+    <col min="11" max="11" width="8.85156" style="42" customWidth="1"/>
+    <col min="12" max="12" width="8.85156" style="42" customWidth="1"/>
+    <col min="13" max="13" width="8.85156" style="42" customWidth="1"/>
+    <col min="14" max="14" width="8.85156" style="42" customWidth="1"/>
+    <col min="15" max="15" width="8.85156" style="42" customWidth="1"/>
+    <col min="16" max="16" width="8.85156" style="42" customWidth="1"/>
+    <col min="17" max="17" width="8.85156" style="42" customWidth="1"/>
+    <col min="18" max="18" width="8.85156" style="42" customWidth="1"/>
+    <col min="19" max="19" width="8.85156" style="42" customWidth="1"/>
+    <col min="20" max="20" width="8.85156" style="42" customWidth="1"/>
+    <col min="21" max="21" width="8.85156" style="42" customWidth="1"/>
+    <col min="22" max="22" width="8.85156" style="42" customWidth="1"/>
+    <col min="23" max="23" width="8.85156" style="42" customWidth="1"/>
+    <col min="24" max="24" width="8.85156" style="42" customWidth="1"/>
+    <col min="25" max="25" width="8.85156" style="42" customWidth="1"/>
+    <col min="26" max="26" width="8.85156" style="42" customWidth="1"/>
+    <col min="27" max="27" width="8.85156" style="42" customWidth="1"/>
+    <col min="28" max="28" width="8.85156" style="42" customWidth="1"/>
+    <col min="29" max="29" width="8.85156" style="42" customWidth="1"/>
+    <col min="30" max="30" width="8.85156" style="42" customWidth="1"/>
+    <col min="31" max="31" width="8.85156" style="42" customWidth="1"/>
     <col min="32" max="256" width="8.85156" style="42" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13464,17 +13491,17 @@
       <c r="B3" t="s" s="45">
         <v>22</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <v>157</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="46">
         <f>D3*C3</f>
         <v>157</v>
       </c>
-      <c r="F3" t="s" s="48">
+      <c r="F3" t="s" s="47">
         <v>23</v>
       </c>
       <c r="G3" s="10"/>
@@ -13510,17 +13537,17 @@
       <c r="B4" t="s" s="45">
         <v>24</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>315</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <f>D4*C4</f>
         <v>315</v>
       </c>
-      <c r="F4" t="s" s="48">
+      <c r="F4" t="s" s="47">
         <v>23</v>
       </c>
       <c r="G4" s="10"/>
@@ -13556,17 +13583,17 @@
       <c r="B5" t="s" s="45">
         <v>25</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <v>2</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>371</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="46">
         <f>D5*C5</f>
         <v>742</v>
       </c>
-      <c r="F5" t="s" s="48">
+      <c r="F5" t="s" s="47">
         <v>23</v>
       </c>
       <c r="G5" s="10"/>
@@ -13602,17 +13629,17 @@
       <c r="B6" t="s" s="45">
         <v>26</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>2</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>371</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <f>D6*C6</f>
         <v>742</v>
       </c>
-      <c r="F6" t="s" s="48">
+      <c r="F6" t="s" s="47">
         <v>23</v>
       </c>
       <c r="G6" s="10"/>
@@ -13645,20 +13672,20 @@
       <c r="A7" s="44">
         <v>43720</v>
       </c>
-      <c r="B7" t="s" s="48">
+      <c r="B7" t="s" s="47">
         <v>27</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="10">
         <v>0</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>1.5</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="46">
         <f>D7*C7</f>
         <v>0</v>
       </c>
-      <c r="F7" t="s" s="48">
+      <c r="F7" t="s" s="47">
         <v>23</v>
       </c>
       <c r="G7" s="10"/>
@@ -13691,21 +13718,21 @@
       <c r="A8" s="44">
         <v>43721</v>
       </c>
-      <c r="B8" t="s" s="48">
+      <c r="B8" t="s" s="47">
         <v>28</v>
       </c>
-      <c r="C8" s="46">
-        <v>4</v>
-      </c>
-      <c r="D8" s="47">
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="46">
         <f>280/0.7</f>
         <v>400</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="46">
         <f>D8*C8</f>
-        <v>1600</v>
-      </c>
-      <c r="F8" t="s" s="48">
+        <v>800</v>
+      </c>
+      <c r="F8" t="s" s="47">
         <v>23</v>
       </c>
       <c r="G8" s="10"/>
@@ -13738,20 +13765,20 @@
       <c r="A9" s="44">
         <v>43721</v>
       </c>
-      <c r="B9" t="s" s="48">
+      <c r="B9" t="s" s="47">
         <v>29</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="10">
         <v>195</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>58</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <f>D9*C9</f>
         <v>11310</v>
       </c>
-      <c r="F9" t="s" s="48">
+      <c r="F9" t="s" s="47">
         <v>30</v>
       </c>
       <c r="G9" s="10"/>
@@ -13784,20 +13811,20 @@
       <c r="A10" s="44">
         <v>43721</v>
       </c>
-      <c r="B10" t="s" s="48">
+      <c r="B10" t="s" s="47">
         <v>31</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="10">
         <v>0</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <v>0</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <f>D10*C10</f>
         <v>0</v>
       </c>
-      <c r="F10" t="s" s="48">
+      <c r="F10" t="s" s="47">
         <v>30</v>
       </c>
       <c r="G10" s="10"/>
@@ -13830,20 +13857,20 @@
       <c r="A11" s="44">
         <v>43721</v>
       </c>
-      <c r="B11" t="s" s="48">
+      <c r="B11" t="s" s="47">
         <v>32</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <v>0</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <f>D11*C11</f>
         <v>0</v>
       </c>
-      <c r="F11" t="s" s="48">
+      <c r="F11" t="s" s="47">
         <v>30</v>
       </c>
       <c r="G11" s="10"/>
@@ -13876,20 +13903,20 @@
       <c r="A12" s="44">
         <v>43721</v>
       </c>
-      <c r="B12" t="s" s="48">
+      <c r="B12" t="s" s="47">
         <v>33</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="10">
         <v>0</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="46">
         <v>0</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="46">
         <f>D12*C12</f>
         <v>0</v>
       </c>
-      <c r="F12" t="s" s="48">
+      <c r="F12" t="s" s="47">
         <v>34</v>
       </c>
       <c r="G12" s="10"/>
@@ -13922,20 +13949,20 @@
       <c r="A13" s="44">
         <v>43722</v>
       </c>
-      <c r="B13" t="s" s="48">
+      <c r="B13" t="s" s="47">
         <v>35</v>
       </c>
-      <c r="C13" s="46">
-        <v>0</v>
-      </c>
-      <c r="D13" s="47">
-        <v>0</v>
-      </c>
-      <c r="E13" s="47">
+      <c r="C13" s="10">
+        <v>20</v>
+      </c>
+      <c r="D13" s="46">
+        <v>45</v>
+      </c>
+      <c r="E13" s="46">
         <f>D13*C13</f>
-        <v>0</v>
-      </c>
-      <c r="F13" t="s" s="48">
+        <v>900</v>
+      </c>
+      <c r="F13" t="s" s="47">
         <v>30</v>
       </c>
       <c r="G13" s="10"/>
@@ -13968,20 +13995,20 @@
       <c r="A14" s="44">
         <v>43722</v>
       </c>
-      <c r="B14" t="s" s="48">
+      <c r="B14" t="s" s="47">
         <v>36</v>
       </c>
-      <c r="C14" s="46">
-        <v>0</v>
-      </c>
-      <c r="D14" s="47">
-        <v>27</v>
-      </c>
-      <c r="E14" s="47">
+      <c r="C14" s="10">
+        <v>20</v>
+      </c>
+      <c r="D14" s="46">
+        <v>34.5</v>
+      </c>
+      <c r="E14" s="46">
         <f>D14*C14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" t="s" s="48">
+        <v>690</v>
+      </c>
+      <c r="F14" t="s" s="47">
         <v>30</v>
       </c>
       <c r="G14" s="10"/>
@@ -14014,20 +14041,20 @@
       <c r="A15" s="44">
         <v>43722</v>
       </c>
-      <c r="B15" t="s" s="48">
+      <c r="B15" t="s" s="47">
         <v>37</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="10">
         <v>0</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <v>0</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="46">
         <f>D15*C15</f>
         <v>0</v>
       </c>
-      <c r="F15" t="s" s="48">
+      <c r="F15" t="s" s="47">
         <v>30</v>
       </c>
       <c r="G15" s="10"/>
@@ -14060,20 +14087,21 @@
       <c r="A16" s="44">
         <v>43722</v>
       </c>
-      <c r="B16" t="s" s="48">
+      <c r="B16" t="s" s="47">
         <v>38</v>
       </c>
-      <c r="C16" s="46">
-        <v>0</v>
-      </c>
-      <c r="D16" s="47">
-        <v>0</v>
-      </c>
-      <c r="E16" s="47">
+      <c r="C16" s="10">
+        <v>7</v>
+      </c>
+      <c r="D16" s="46">
+        <f t="shared" si="14" ref="D16:D17">35/0.7</f>
+        <v>50</v>
+      </c>
+      <c r="E16" s="46">
         <f>D16*C16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" t="s" s="48">
+        <v>350</v>
+      </c>
+      <c r="F16" t="s" s="47">
         <v>30</v>
       </c>
       <c r="G16" s="10"/>
@@ -14106,20 +14134,21 @@
       <c r="A17" s="44">
         <v>43722</v>
       </c>
-      <c r="B17" t="s" s="48">
+      <c r="B17" t="s" s="47">
         <v>39</v>
       </c>
-      <c r="C17" s="46">
-        <v>0</v>
-      </c>
-      <c r="D17" s="47">
-        <v>0</v>
-      </c>
-      <c r="E17" s="47">
+      <c r="C17" s="10">
+        <v>10</v>
+      </c>
+      <c r="D17" s="46">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="46">
         <f>D17*C17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" t="s" s="48">
+        <v>500</v>
+      </c>
+      <c r="F17" t="s" s="47">
         <v>30</v>
       </c>
       <c r="G17" s="10"/>
@@ -14152,20 +14181,20 @@
       <c r="A18" s="44">
         <v>43722</v>
       </c>
-      <c r="B18" t="s" s="48">
+      <c r="B18" t="s" s="47">
         <v>40</v>
       </c>
-      <c r="C18" s="46">
-        <v>0</v>
-      </c>
-      <c r="D18" s="47">
-        <v>0</v>
-      </c>
-      <c r="E18" s="47">
+      <c r="C18" s="10">
+        <v>20</v>
+      </c>
+      <c r="D18" s="46">
+        <v>79</v>
+      </c>
+      <c r="E18" s="46">
         <f>D18*C18</f>
-        <v>0</v>
-      </c>
-      <c r="F18" t="s" s="48">
+        <v>1580</v>
+      </c>
+      <c r="F18" t="s" s="47">
         <v>30</v>
       </c>
       <c r="G18" s="10"/>
@@ -14196,23 +14225,23 @@
     </row>
     <row r="19" ht="13.65" customHeight="1">
       <c r="A19" s="44">
-        <v>43723</v>
-      </c>
-      <c r="B19" t="s" s="45">
+        <v>43722</v>
+      </c>
+      <c r="B19" t="s" s="47">
         <v>41</v>
       </c>
-      <c r="C19" s="46">
-        <v>1</v>
-      </c>
-      <c r="D19" s="47">
-        <v>315</v>
-      </c>
-      <c r="E19" s="47">
+      <c r="C19" s="10">
+        <v>20</v>
+      </c>
+      <c r="D19" s="46">
+        <v>43</v>
+      </c>
+      <c r="E19" s="46">
         <f>D19*C19</f>
-        <v>315</v>
-      </c>
-      <c r="F19" t="s" s="48">
-        <v>23</v>
+        <v>860</v>
+      </c>
+      <c r="F19" t="s" s="47">
+        <v>30</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -14247,17 +14276,17 @@
       <c r="B20" t="s" s="45">
         <v>42</v>
       </c>
-      <c r="C20" s="46">
-        <v>2</v>
-      </c>
-      <c r="D20" s="47">
-        <v>371</v>
-      </c>
-      <c r="E20" s="47">
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="46">
+        <v>315</v>
+      </c>
+      <c r="E20" s="46">
         <f>D20*C20</f>
-        <v>742</v>
-      </c>
-      <c r="F20" t="s" s="48">
+        <v>315</v>
+      </c>
+      <c r="F20" t="s" s="47">
         <v>23</v>
       </c>
       <c r="G20" s="10"/>
@@ -14293,17 +14322,17 @@
       <c r="B21" t="s" s="45">
         <v>43</v>
       </c>
-      <c r="C21" s="46">
-        <v>1</v>
-      </c>
-      <c r="D21" s="47">
-        <v>315</v>
-      </c>
-      <c r="E21" s="47">
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="46">
+        <v>371</v>
+      </c>
+      <c r="E21" s="46">
         <f>D21*C21</f>
-        <v>315</v>
-      </c>
-      <c r="F21" t="s" s="48">
+        <v>742</v>
+      </c>
+      <c r="F21" t="s" s="47">
         <v>23</v>
       </c>
       <c r="G21" s="10"/>
@@ -14339,17 +14368,17 @@
       <c r="B22" t="s" s="45">
         <v>44</v>
       </c>
-      <c r="C22" s="46">
-        <v>2</v>
-      </c>
-      <c r="D22" s="47">
-        <v>371</v>
-      </c>
-      <c r="E22" s="47">
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="46">
+        <v>315</v>
+      </c>
+      <c r="E22" s="46">
         <f>D22*C22</f>
-        <v>742</v>
-      </c>
-      <c r="F22" t="s" s="48">
+        <v>315</v>
+      </c>
+      <c r="F22" t="s" s="47">
         <v>23</v>
       </c>
       <c r="G22" s="10"/>
@@ -14379,16 +14408,25 @@
       <c r="AE22" s="10"/>
     </row>
     <row r="23" ht="13.65" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" t="s" s="48">
+      <c r="A23" s="44">
+        <v>43723</v>
+      </c>
+      <c r="B23" t="s" s="45">
         <v>45</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="47">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="46">
+        <v>371</v>
+      </c>
+      <c r="E23" s="46">
+        <f>D23*C23</f>
+        <v>742</v>
+      </c>
+      <c r="F23" t="s" s="47">
+        <v>23</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -14417,10 +14455,14 @@
     </row>
     <row r="24" ht="13.65" customHeight="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="B24" t="s" s="47">
+        <v>46</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="46">
+        <v>0</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -14448,11 +14490,44 @@
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
     </row>
+    <row r="25" ht="13.65" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -14465,27 +14540,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="50" customWidth="1"/>
-    <col min="2" max="2" width="161.172" style="50" customWidth="1"/>
-    <col min="3" max="6" width="8.85156" style="50" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="50" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="49" customWidth="1"/>
+    <col min="2" max="2" width="161.172" style="49" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="49" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="49" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="49" customWidth="1"/>
+    <col min="6" max="6" width="8.85156" style="49" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
       <c r="A1" t="s" s="43">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s" s="43">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s" s="43">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s" s="43">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s" s="43">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s" s="43">
         <v>21</v>
@@ -14493,108 +14571,108 @@
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" s="44"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" s="44"/>
-      <c r="B3" s="51"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="44"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="44"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="44"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="44"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" s="44"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" s="44"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" s="44"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" s="44"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" s="44"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" ht="13.65" customHeight="1">
       <c r="A13" s="44"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" t="s" s="48">
-        <v>45</v>
+      <c r="B14" t="s" s="47">
+        <v>46</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="47">
+      <c r="E14" s="46">
         <v>0</v>
       </c>
       <c r="F14" s="10"/>
@@ -14603,7 +14681,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -14616,24 +14694,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="53" customWidth="1"/>
-    <col min="2" max="2" width="9.17188" style="53" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="53" customWidth="1"/>
-    <col min="6" max="7" width="10.1719" style="53" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="53" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="51" customWidth="1"/>
+    <col min="2" max="2" width="9.17188" style="51" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="51" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="51" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="51" customWidth="1"/>
+    <col min="6" max="6" width="10.1719" style="51" customWidth="1"/>
+    <col min="7" max="7" width="10.1719" style="51" customWidth="1"/>
+    <col min="8" max="256" width="8.85156" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" t="s" s="48">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s" s="48">
+      <c r="C1" t="s" s="47">
         <v>52</v>
       </c>
-      <c r="E1" t="s" s="48">
+      <c r="D1" t="s" s="47">
         <v>53</v>
+      </c>
+      <c r="E1" t="s" s="47">
+        <v>54</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -14643,8 +14724,8 @@
       <c r="B2" s="10"/>
       <c r="C2" s="44"/>
       <c r="D2" s="10"/>
-      <c r="E2" t="s" s="48">
-        <v>54</v>
+      <c r="E2" t="s" s="47">
+        <v>55</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -14653,9 +14734,9 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="44"/>
-      <c r="D3" s="54"/>
-      <c r="E3" t="s" s="48">
-        <v>54</v>
+      <c r="D3" s="52"/>
+      <c r="E3" t="s" s="47">
+        <v>55</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -14664,9 +14745,9 @@
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="44"/>
-      <c r="D4" s="54"/>
-      <c r="E4" t="s" s="48">
-        <v>54</v>
+      <c r="D4" s="52"/>
+      <c r="E4" t="s" s="47">
+        <v>55</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -14676,62 +14757,62 @@
       <c r="B5" s="10"/>
       <c r="C5" s="44"/>
       <c r="D5" s="10"/>
-      <c r="E5" t="s" s="48">
-        <v>54</v>
+      <c r="E5" t="s" s="47">
+        <v>55</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -948,10 +948,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1519,10 +1519,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -14045,14 +14045,15 @@
         <v>37</v>
       </c>
       <c r="C15" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15" s="46">
-        <v>0</v>
+        <f t="shared" si="13" ref="D15:D17">35/0.7</f>
+        <v>50</v>
       </c>
       <c r="E15" s="46">
         <f>D15*C15</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="F15" t="s" s="47">
         <v>30</v>
@@ -14094,7 +14095,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="46">
-        <f t="shared" si="14" ref="D16:D17">35/0.7</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="E16" s="46">
@@ -14141,7 +14142,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="E17" s="46">

--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>first</t>
   </si>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">Optional: Water in bus - rate per unit </t>
   </si>
   <si>
-    <t xml:space="preserve">50 seater coach at disposal maximum 4 hours for activities in Benidorm </t>
+    <t>50 seater coach at disposal maximum 4 hours for beach activity in Benidorm</t>
   </si>
   <si>
     <t xml:space="preserve">Beach activities according description </t>
@@ -123,7 +123,13 @@
     <t xml:space="preserve"> activity</t>
   </si>
   <si>
+    <t>Mini bus at disposal up to 25 people for Cliff hike. 4 hours</t>
+  </si>
+  <si>
     <t>Benidorm cliff hike</t>
+  </si>
+  <si>
+    <t>Mini bus at disposal up to 25 people for Mountain hiking. 4 hours</t>
   </si>
   <si>
     <t xml:space="preserve">Hiking in the mountains </t>
@@ -13366,7 +13372,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -13772,11 +13778,11 @@
         <v>195</v>
       </c>
       <c r="D9" s="46">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="46">
         <f>D9*C9</f>
-        <v>11310</v>
+        <v>10530</v>
       </c>
       <c r="F9" t="s" s="47">
         <v>30</v>
@@ -13953,17 +13959,17 @@
         <v>35</v>
       </c>
       <c r="C13" s="10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D13" s="46">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="E13" s="46">
         <f>D13*C13</f>
-        <v>900</v>
+        <v>370</v>
       </c>
       <c r="F13" t="s" s="47">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -14002,11 +14008,11 @@
         <v>20</v>
       </c>
       <c r="D14" s="46">
-        <v>34.5</v>
+        <v>45</v>
       </c>
       <c r="E14" s="46">
         <f>D14*C14</f>
-        <v>690</v>
+        <v>900</v>
       </c>
       <c r="F14" t="s" s="47">
         <v>30</v>
@@ -14045,18 +14051,17 @@
         <v>37</v>
       </c>
       <c r="C15" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" s="46">
-        <f t="shared" si="13" ref="D15:D17">35/0.7</f>
-        <v>50</v>
+        <v>370</v>
       </c>
       <c r="E15" s="46">
         <f>D15*C15</f>
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="F15" t="s" s="47">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -14092,15 +14097,14 @@
         <v>38</v>
       </c>
       <c r="C16" s="10">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D16" s="46">
-        <f t="shared" si="13"/>
-        <v>50</v>
+        <v>34.5</v>
       </c>
       <c r="E16" s="46">
         <f>D16*C16</f>
-        <v>350</v>
+        <v>690</v>
       </c>
       <c r="F16" t="s" s="47">
         <v>30</v>
@@ -14139,15 +14143,15 @@
         <v>39</v>
       </c>
       <c r="C17" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15" ref="D17:D19">35/0.7</f>
         <v>50</v>
       </c>
       <c r="E17" s="46">
         <f>D17*C17</f>
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="F17" t="s" s="47">
         <v>30</v>
@@ -14186,14 +14190,15 @@
         <v>40</v>
       </c>
       <c r="C18" s="10">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D18" s="46">
-        <v>79</v>
+        <f t="shared" si="15"/>
+        <v>50</v>
       </c>
       <c r="E18" s="46">
         <f>D18*C18</f>
-        <v>1580</v>
+        <v>350</v>
       </c>
       <c r="F18" t="s" s="47">
         <v>30</v>
@@ -14232,14 +14237,15 @@
         <v>41</v>
       </c>
       <c r="C19" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D19" s="46">
-        <v>43</v>
+        <f t="shared" si="15"/>
+        <v>50</v>
       </c>
       <c r="E19" s="46">
         <f>D19*C19</f>
-        <v>860</v>
+        <v>500</v>
       </c>
       <c r="F19" t="s" s="47">
         <v>30</v>
@@ -14272,23 +14278,23 @@
     </row>
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" s="44">
-        <v>43723</v>
-      </c>
-      <c r="B20" t="s" s="45">
+        <v>43722</v>
+      </c>
+      <c r="B20" t="s" s="47">
         <v>42</v>
       </c>
       <c r="C20" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D20" s="46">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="E20" s="46">
         <f>D20*C20</f>
-        <v>315</v>
+        <v>1580</v>
       </c>
       <c r="F20" t="s" s="47">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -14318,23 +14324,23 @@
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" s="44">
-        <v>43723</v>
-      </c>
-      <c r="B21" t="s" s="45">
+        <v>43722</v>
+      </c>
+      <c r="B21" t="s" s="47">
         <v>43</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D21" s="46">
-        <v>371</v>
+        <v>43</v>
       </c>
       <c r="E21" s="46">
         <f>D21*C21</f>
-        <v>742</v>
+        <v>860</v>
       </c>
       <c r="F21" t="s" s="47">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -14455,16 +14461,25 @@
       <c r="AE23" s="10"/>
     </row>
     <row r="24" ht="13.65" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" t="s" s="47">
+      <c r="A24" s="44">
+        <v>43723</v>
+      </c>
+      <c r="B24" t="s" s="45">
         <v>46</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="46">
+        <v>315</v>
+      </c>
       <c r="E24" s="46">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10"/>
+        <f>D24*C24</f>
+        <v>315</v>
+      </c>
+      <c r="F24" t="s" s="47">
+        <v>23</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -14492,12 +14507,25 @@
       <c r="AE24" s="10"/>
     </row>
     <row r="25" ht="13.65" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="44">
+        <v>43723</v>
+      </c>
+      <c r="B25" t="s" s="45">
+        <v>47</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="D25" s="46">
+        <v>371</v>
+      </c>
+      <c r="E25" s="46">
+        <f>D25*C25</f>
+        <v>742</v>
+      </c>
+      <c r="F25" t="s" s="47">
+        <v>23</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -14523,6 +14551,76 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
+    </row>
+    <row r="26" ht="13.65" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" t="s" s="47">
+        <v>48</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="46">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+    </row>
+    <row r="27" ht="13.65" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14552,19 +14650,19 @@
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
       <c r="A1" t="s" s="43">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s" s="43">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s" s="43">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s" s="43">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s" s="43">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s" s="43">
         <v>21</v>
@@ -14669,7 +14767,7 @@
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" t="s" s="47">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -14709,13 +14807,13 @@
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" t="s" s="47">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s" s="47">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s" s="47">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -14726,7 +14824,7 @@
       <c r="C2" s="44"/>
       <c r="D2" s="10"/>
       <c r="E2" t="s" s="47">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -14737,7 +14835,7 @@
       <c r="C3" s="44"/>
       <c r="D3" s="52"/>
       <c r="E3" t="s" s="47">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -14748,7 +14846,7 @@
       <c r="C4" s="44"/>
       <c r="D4" s="52"/>
       <c r="E4" t="s" s="47">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -14759,7 +14857,7 @@
       <c r="C5" s="44"/>
       <c r="D5" s="10"/>
       <c r="E5" t="s" s="47">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>

--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>first</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Drinks and Snack station: water, refreshments, some fruits - Included in beach activities rates</t>
-  </si>
-  <si>
-    <t>Jet skies</t>
   </si>
   <si>
     <t>stand-up paddle</t>
@@ -13372,7 +13369,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -13877,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s" s="47">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -13907,23 +13904,23 @@
     </row>
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" s="44">
-        <v>43721</v>
+        <v>43722</v>
       </c>
       <c r="B12" t="s" s="47">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="46">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="E12" s="46">
         <f>D12*C12</f>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="F12" t="s" s="47">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -13959,17 +13956,17 @@
         <v>35</v>
       </c>
       <c r="C13" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D13" s="46">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="E13" s="46">
         <f>D13*C13</f>
-        <v>370</v>
+        <v>900</v>
       </c>
       <c r="F13" t="s" s="47">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -14005,17 +14002,17 @@
         <v>36</v>
       </c>
       <c r="C14" s="10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D14" s="46">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="E14" s="46">
         <f>D14*C14</f>
-        <v>900</v>
+        <v>370</v>
       </c>
       <c r="F14" t="s" s="47">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -14051,17 +14048,17 @@
         <v>37</v>
       </c>
       <c r="C15" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D15" s="46">
-        <v>370</v>
+        <v>34.5</v>
       </c>
       <c r="E15" s="46">
         <f>D15*C15</f>
-        <v>370</v>
+        <v>690</v>
       </c>
       <c r="F15" t="s" s="47">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -14097,14 +14094,15 @@
         <v>38</v>
       </c>
       <c r="C16" s="10">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D16" s="46">
-        <v>34.5</v>
+        <f t="shared" si="14" ref="D16:D18">35/0.7</f>
+        <v>50</v>
       </c>
       <c r="E16" s="46">
         <f>D16*C16</f>
-        <v>690</v>
+        <v>350</v>
       </c>
       <c r="F16" t="s" s="47">
         <v>30</v>
@@ -14146,7 +14144,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="46">
-        <f t="shared" si="15" ref="D17:D19">35/0.7</f>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="E17" s="46">
@@ -14190,15 +14188,15 @@
         <v>40</v>
       </c>
       <c r="C18" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D18" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="E18" s="46">
         <f>D18*C18</f>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="F18" t="s" s="47">
         <v>30</v>
@@ -14237,15 +14235,14 @@
         <v>41</v>
       </c>
       <c r="C19" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D19" s="46">
-        <f t="shared" si="15"/>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E19" s="46">
         <f>D19*C19</f>
-        <v>500</v>
+        <v>1580</v>
       </c>
       <c r="F19" t="s" s="47">
         <v>30</v>
@@ -14287,11 +14284,11 @@
         <v>20</v>
       </c>
       <c r="D20" s="46">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E20" s="46">
         <f>D20*C20</f>
-        <v>1580</v>
+        <v>860</v>
       </c>
       <c r="F20" t="s" s="47">
         <v>30</v>
@@ -14324,23 +14321,23 @@
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" s="44">
-        <v>43722</v>
-      </c>
-      <c r="B21" t="s" s="47">
+        <v>43723</v>
+      </c>
+      <c r="B21" t="s" s="45">
         <v>43</v>
       </c>
       <c r="C21" s="10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D21" s="46">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="E21" s="46">
         <f>D21*C21</f>
-        <v>860</v>
+        <v>315</v>
       </c>
       <c r="F21" t="s" s="47">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -14376,14 +14373,14 @@
         <v>44</v>
       </c>
       <c r="C22" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="46">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="E22" s="46">
         <f>D22*C22</f>
-        <v>315</v>
+        <v>742</v>
       </c>
       <c r="F22" t="s" s="47">
         <v>23</v>
@@ -14422,14 +14419,14 @@
         <v>45</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="46">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="E23" s="46">
         <f>D23*C23</f>
-        <v>742</v>
+        <v>315</v>
       </c>
       <c r="F23" t="s" s="47">
         <v>23</v>
@@ -14468,14 +14465,14 @@
         <v>46</v>
       </c>
       <c r="C24" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="46">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="E24" s="46">
         <f>D24*C24</f>
-        <v>315</v>
+        <v>742</v>
       </c>
       <c r="F24" t="s" s="47">
         <v>23</v>
@@ -14507,25 +14504,16 @@
       <c r="AE24" s="10"/>
     </row>
     <row r="25" ht="13.65" customHeight="1">
-      <c r="A25" s="44">
-        <v>43723</v>
-      </c>
-      <c r="B25" t="s" s="45">
+      <c r="A25" s="10"/>
+      <c r="B25" t="s" s="47">
         <v>47</v>
       </c>
-      <c r="C25" s="10">
-        <v>2</v>
-      </c>
-      <c r="D25" s="46">
-        <v>371</v>
-      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="46">
-        <f>D25*C25</f>
-        <v>742</v>
-      </c>
-      <c r="F25" t="s" s="47">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -14554,14 +14542,10 @@
     </row>
     <row r="26" ht="13.65" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" t="s" s="47">
-        <v>48</v>
-      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="46">
-        <v>0</v>
-      </c>
+      <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -14588,39 +14572,6 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="10"/>
-    </row>
-    <row r="27" ht="13.65" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14650,19 +14601,19 @@
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
       <c r="A1" t="s" s="43">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s" s="43">
         <v>49</v>
       </c>
-      <c r="B1" t="s" s="43">
+      <c r="C1" t="s" s="43">
         <v>50</v>
       </c>
-      <c r="C1" t="s" s="43">
+      <c r="D1" t="s" s="43">
         <v>51</v>
       </c>
-      <c r="D1" t="s" s="43">
+      <c r="E1" t="s" s="43">
         <v>52</v>
-      </c>
-      <c r="E1" t="s" s="43">
-        <v>53</v>
       </c>
       <c r="F1" t="s" s="43">
         <v>21</v>
@@ -14767,7 +14718,7 @@
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" t="s" s="47">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -14807,13 +14758,13 @@
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" t="s" s="47">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s" s="47">
         <v>54</v>
       </c>
-      <c r="D1" t="s" s="47">
+      <c r="E1" t="s" s="47">
         <v>55</v>
-      </c>
-      <c r="E1" t="s" s="47">
-        <v>56</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -14824,7 +14775,7 @@
       <c r="C2" s="44"/>
       <c r="D2" s="10"/>
       <c r="E2" t="s" s="47">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -14835,7 +14786,7 @@
       <c r="C3" s="44"/>
       <c r="D3" s="52"/>
       <c r="E3" t="s" s="47">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -14846,7 +14797,7 @@
       <c r="C4" s="44"/>
       <c r="D4" s="52"/>
       <c r="E4" t="s" s="47">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -14857,7 +14808,7 @@
       <c r="C5" s="44"/>
       <c r="D5" s="10"/>
       <c r="E5" t="s" s="47">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
